--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2141.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2141.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.746869150857514</v>
+        <v>0.5772774815559387</v>
       </c>
       <c r="B1">
-        <v>3.943133970187477</v>
+        <v>1.183201789855957</v>
       </c>
       <c r="C1">
-        <v>2.566411925042551</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>0.9378794030993318</v>
+        <v>2.733784675598145</v>
       </c>
       <c r="E1">
-        <v>0.6309339838683845</v>
+        <v>1.452551245689392</v>
       </c>
     </row>
   </sheetData>
